--- a/ChuangYeRen_Project/相关表.xlsx
+++ b/ChuangYeRen_Project/相关表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="生产订单接口字段对照" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$D$14</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -162,13 +163,475 @@
   <si>
     <t>IR=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualStartDate</t>
+  </si>
+  <si>
+    <t>业务开始时间</t>
+  </si>
+  <si>
+    <t>BOMAlternate</t>
+  </si>
+  <si>
+    <t>BOM生产目的</t>
+  </si>
+  <si>
+    <t>RoutingAlternate</t>
+  </si>
+  <si>
+    <t>工艺生产目的</t>
+  </si>
+  <si>
+    <t>BOMECONo</t>
+  </si>
+  <si>
+    <t>BOM变更号</t>
+  </si>
+  <si>
+    <t>BOMEffeDate</t>
+  </si>
+  <si>
+    <t>BOM有效日期</t>
+  </si>
+  <si>
+    <t>BOMType</t>
+  </si>
+  <si>
+    <t>BOM类型</t>
+  </si>
+  <si>
+    <t>BOMVersion</t>
+  </si>
+  <si>
+    <t>BOM版本</t>
+  </si>
+  <si>
+    <t>BusinessPerson</t>
+  </si>
+  <si>
+    <t>业务员</t>
+  </si>
+  <si>
+    <t>计划完工日</t>
+  </si>
+  <si>
+    <t>CostField</t>
+  </si>
+  <si>
+    <t>成本域</t>
+  </si>
+  <si>
+    <t>DemandCode</t>
+  </si>
+  <si>
+    <t>需求分类</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>生产部门</t>
+  </si>
+  <si>
+    <t>U9字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U9字段描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业人字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业人字段描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主制造：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；委外：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自制：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；委外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocNo</t>
+  </si>
+  <si>
+    <t>MODocType:单据类型</t>
+  </si>
+  <si>
+    <t>ExpandLevel</t>
+  </si>
+  <si>
+    <t>展开阶数</t>
+  </si>
+  <si>
+    <t>IsCapacityLimit</t>
+  </si>
+  <si>
+    <t>有限产能</t>
+  </si>
+  <si>
+    <t>IsFirmed</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>ItemMaster</t>
+  </si>
+  <si>
+    <t>料品</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>成品编码</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>物料ID</t>
+  </si>
+  <si>
+    <t>tMaterialBE::tMaterial</t>
+  </si>
+  <si>
+    <t>ItemVersion</t>
+  </si>
+  <si>
+    <t>料品版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MOOperations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：生产订单工序</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOOperationDTOs</t>
+  </si>
+  <si>
+    <t>MOPickListDTOs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MOPickLists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：订单备料</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSrcRelationDTOs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MOSourceDocRelation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：生产订单来源关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSourceDocType</t>
+  </si>
+  <si>
+    <t>来源单据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRPQty</t>
+  </si>
+  <si>
+    <t>MRP数量</t>
+  </si>
+  <si>
+    <t>OwnerOrg</t>
+  </si>
+  <si>
+    <t>货主组织</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>ProductLotMaster</t>
+  </si>
+  <si>
+    <t>ProductLotNo</t>
+  </si>
+  <si>
+    <t>生产批号（int）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产批号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> System.String </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductQty</t>
+  </si>
+  <si>
+    <t>生产数量</t>
+  </si>
+  <si>
+    <t>ProductUOM</t>
+  </si>
+  <si>
+    <r>
+      <t>ProductUOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF015BA0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCPOID</t>
+  </si>
+  <si>
+    <t>销售订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoutingECONo</t>
+  </si>
+  <si>
+    <t>工艺变更号</t>
+  </si>
+  <si>
+    <t>RoutingEffeDate</t>
+  </si>
+  <si>
+    <t>工艺有效日期</t>
+  </si>
+  <si>
+    <t>RoutingVer</t>
+  </si>
+  <si>
+    <t>工艺版本</t>
+  </si>
+  <si>
+    <t>SCVBin</t>
+  </si>
+  <si>
+    <t>入库库位</t>
+  </si>
+  <si>
+    <t>SCVWh</t>
+  </si>
+  <si>
+    <t>入库存储地点</t>
+  </si>
+  <si>
+    <t>Seiban</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>SnList</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>计划开工日</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>默认自制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COperator</t>
+  </si>
+  <si>
+    <t>CompleteDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +668,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF015BA0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF015BA0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF015BA0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF015BA0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +714,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,11 +750,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAFD4F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAFD4F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAFD4F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAFD4F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAFD4F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAFD4F2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +794,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,9 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -874,6 +1425,692 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="BudgetSheetCodeName" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -887,7 +2124,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B737631-A405-415C-A279-72FF80881DFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFEAB23A-7A23-4F4F-B5D7-48DAB48503A9}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ChuangYeRen_Project/相关表.xlsx
+++ b/ChuangYeRen_Project/相关表.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -625,6 +625,10 @@
   <si>
     <t>CompleteDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvStockBE.InvStocks 进出仓明细子表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1124,9 +1128,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1202,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1435,9 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2124,7 +2132,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFEAB23A-7A23-4F4F-B5D7-48DAB48503A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4461F4-5833-4664-9646-A92D5FEECC3E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>